--- a/public/templates/BVW_Payroll_Template.xlsx
+++ b/public/templates/BVW_Payroll_Template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -116,9 +116,8 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yy"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,20 +167,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -233,8 +226,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -734,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -786,6 +778,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -844,21 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -909,6 +912,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1161,12 +1179,36 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1194,6 +1236,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1349,138 +1406,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,187 +1608,187 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="12" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="18" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="17" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1746,64 +1803,67 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,19 +1884,16 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1848,82 +1905,85 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1934,7 +1994,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -2248,10 +2308,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2309,7 +2369,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="125"/>
     </row>
-    <row r="4" ht="17.4" spans="1:10">
+    <row r="4" ht="18.15" spans="1:10">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2383,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="126"/>
     </row>
-    <row r="5" ht="23.55" spans="1:10">
+    <row r="5" ht="21.75" spans="1:10">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -2331,10 +2391,10 @@
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="26"/>
       <c r="I5" s="127"/>
       <c r="J5" s="128"/>
@@ -2357,19 +2417,19 @@
         <v>9</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="129"/>
     </row>
     <row r="7" ht="15.15" spans="1:11">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="130"/>
       <c r="J7" s="131"/>
       <c r="K7" s="132"/>
@@ -2388,7 +2448,7 @@
       <c r="I8" s="133"/>
       <c r="J8" s="134"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
+    <row r="9" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:13">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -2399,6 +2459,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="135"/>
+      <c r="M9" s="136"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A10" s="55"/>
@@ -2494,7 +2555,7 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
-      <c r="J17" s="136"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A18" s="55"/>
@@ -2724,8 +2785,8 @@
       <c r="G36" s="72"/>
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="139"/>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:11">
       <c r="A37" s="73"/>
@@ -2737,8 +2798,8 @@
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
       <c r="I37" s="76"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="138"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="139"/>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="1:10">
       <c r="A38" s="77" t="s">
@@ -2755,8 +2816,8 @@
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="142"/>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="1:10">
       <c r="A39" s="85" t="s">
@@ -2772,7 +2833,7 @@
       <c r="G39" s="88"/>
       <c r="H39" s="89"/>
       <c r="I39" s="88"/>
-      <c r="J39" s="142"/>
+      <c r="J39" s="143"/>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="1:10">
       <c r="A40" s="85" t="s">
@@ -2788,7 +2849,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="143"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="1:10">
       <c r="A41" s="92"/>
@@ -2800,7 +2861,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="143"/>
+      <c r="J41" s="144"/>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="1:10">
       <c r="A42" s="95"/>
@@ -2812,7 +2873,7 @@
       <c r="G42" s="96"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="144"/>
+      <c r="J42" s="145"/>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="1:10">
       <c r="A43" s="16" t="s">
@@ -2828,7 +2889,7 @@
       <c r="G43" s="96"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="144"/>
+      <c r="J43" s="145"/>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="1:10">
       <c r="A44" s="85" t="s">
@@ -2844,7 +2905,7 @@
       <c r="G44" s="96"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="144"/>
+      <c r="J44" s="145"/>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="1:10">
       <c r="A45" s="95"/>
@@ -2854,7 +2915,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="1:10">
       <c r="A46" s="95"/>
@@ -2868,7 +2929,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="111"/>
       <c r="I46" s="111"/>
-      <c r="J46" s="145"/>
+      <c r="J46" s="146"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="1:10">
       <c r="A47" s="16" t="s">
@@ -2882,7 +2943,7 @@
       <c r="G47" s="113"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
-      <c r="J47" s="144"/>
+      <c r="J47" s="145"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="1:10">
       <c r="A48" s="95"/>
@@ -2894,7 +2955,7 @@
       <c r="G48" s="114"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
-      <c r="J48" s="144"/>
+      <c r="J48" s="145"/>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="1:10">
       <c r="A49" s="95"/>
@@ -2906,7 +2967,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="115"/>
       <c r="I49" s="115"/>
-      <c r="J49" s="146"/>
+      <c r="J49" s="147"/>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="1:10">
       <c r="A50" s="16"/>
@@ -2918,7 +2979,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="144"/>
+      <c r="J50" s="145"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="1:10">
       <c r="A51" s="116"/>
@@ -2930,7 +2991,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="118"/>
       <c r="I51" s="118"/>
-      <c r="J51" s="147"/>
+      <c r="J51" s="148"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="1:10">
       <c r="A52" s="95"/>
@@ -2942,7 +3003,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="144"/>
+      <c r="J52" s="145"/>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="1:10">
       <c r="A53" s="119"/>
@@ -2954,7 +3015,7 @@
       <c r="G53" s="120"/>
       <c r="H53" s="120"/>
       <c r="I53" s="120"/>
-      <c r="J53" s="148"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="122"/>
@@ -3007,7 +3068,7 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="F9:J9"/>
